--- a/Excel Working Data/Northwest-DESE_DataCombinedML.xlsx
+++ b/Excel Working Data/Northwest-DESE_DataCombinedML.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meghaan\Projects\M.S.-Data-Analytics-Capstone-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meghaan\Projects\M.S.-Data-Analytics-Capstone-Project\Excel Working Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A926CB-DB23-451C-BEFC-B512CD183764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3F58F4-2BF8-42BA-B7BA-097A9F789FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6DE9EBAE-77DA-4C68-B985-0720D3ED16F6}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{6DE9EBAE-77DA-4C68-B985-0720D3ED16F6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NW-DESE" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -97,8 +97,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -122,12 +130,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,149 +672,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C8B24C-427A-4B34-AB93-8A997577AF1F}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>2012</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>926</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>64491</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2013</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>908</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>64043</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2014</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>864</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>63528</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>2015</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>890</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>63343</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>2016</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>897</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>64306</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>2017</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>781</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>63752</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>2018</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>889</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>64294</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>2019</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>870</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>63907</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>2020</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>816</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>63496</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>2021</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>673</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>64524</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>2022</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="11">
         <v>715</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="12">
         <v>64862</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -617,12 +826,12 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -701,7 +910,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
